--- a/docs/data/writeThisXLSX.xlsx
+++ b/docs/data/writeThisXLSX.xlsx
@@ -386,7 +386,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/docs/data/writeThisXLSX.xlsx
+++ b/docs/data/writeThisXLSX.xlsx
@@ -1,73 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Gene_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_1.hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_2.hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_3.hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_4.low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_5.low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_1.low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_h</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,13 +52,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -149,6 +112,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -174,12 +141,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -205,7 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,222 +350,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gene_Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sample_1.hi</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sample_2.hi</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sample_3.hi</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sample_4.low</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sample_5.low</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sample_1.low</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Gene_a</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>4.57023720364456</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3.23046698308814</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>3.35182734109581</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>3.93087740507604</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>4.0982466615574</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>4.41872599241738</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gene_b</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>3.56173302139372</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3.63228532632679</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3.58752332121842</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>4.18528703973968</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1.38097605082883</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>5.93699011597982</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gene_c</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>3.79727358461183</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2.87446166873403</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4.01691554677942</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>4.17577190504476</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.98826298986763</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>3.78091724072316</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gene_d</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>3.39824234540912</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4.41520211046494</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4.89356108533325</v>
       </c>
-      <c r="E5" t="n">
-        <v>8.43234190142067</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>8.432341901420671</v>
+      </c>
+      <c r="F5">
         <v>9.60915098691968</v>
       </c>
-      <c r="G5" t="n">
-        <v>9.0198646654463</v>
+      <c r="G5">
+        <v>9.019864665446301</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gene_e</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>10.1287867100999</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>10.2240711640563</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>8.94581254480525</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2.93617443910193</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>3.89292401779979</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.9192078505738</v>
+      <c r="G6">
+        <v>0.9192078505738001</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>8.4743967992122</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8.61262799641256</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gene_f</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>8.474396799212201</v>
+      </c>
+      <c r="C7">
+        <v>8.612627996412559</v>
+      </c>
+      <c r="D7">
         <v>7.17082985953462</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>3.29935092702527</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>2.57586964139094</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2.54277726226409</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gene_g</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>10.0100200884644</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>10.3123540206195</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>11.6032898362026</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>9.93070416736469</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>7.748795278315</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>9.79882378023307</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gene_h</t>
+        </is>
+      </c>
+      <c r="B9">
         <v>9.39999241674877</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>10.3328437472096</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>9.37821714239085</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>10.0651996274656</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>10.7886185725894</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>10.2453257876411</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>